--- a/sheets/2026NonBlockingLife.xlsx
+++ b/sheets/2026NonBlockingLife.xlsx
@@ -1,87 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d39fb11249e9e67/Documents/2026/NonBlockingLife/sheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9A4AF3220483393B59D318A1354269B941440AEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DDFC32-AF67-40CF-9044-1567FCD0752D}"/>
-  <bookViews>
-    <workbookView xWindow="12630" yWindow="2550" windowWidth="10500" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Log" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
-    <sheet name="Inbox" sheetId="3" r:id="rId3"/>
-    <sheet name="Task_Pool" sheetId="4" r:id="rId4"/>
-    <sheet name="Micro_Tasks" sheetId="5" r:id="rId5"/>
-    <sheet name="Periodic_Config" sheetId="6" r:id="rId6"/>
-    <sheet name="Async_Await" sheetId="7" r:id="rId7"/>
+    <sheet state="visible" name="Log" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Dashboard" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Inbox" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Task_Pool" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Micro_Tasks" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="Periodic_Config" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="Async_Await" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="Selection_Cache" sheetId="8" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
+    <t>Task_ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Start_At</t>
+  </si>
+  <si>
+    <t>System_Status</t>
+  </si>
+  <si>
+    <t>Total_Focus_Today</t>
+  </si>
+  <si>
+    <t>Received_At</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Spent_Today_Mins</t>
+  </si>
+  <si>
+    <t>Daily_Limit_Mins</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Added_Date</t>
+  </si>
+  <si>
     <t>Task_Name</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Current_Task</t>
-  </si>
-  <si>
-    <t>Start_At</t>
-  </si>
-  <si>
-    <t>System_Status</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Received_At</t>
-  </si>
-  <si>
-    <t>Task_ID</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Spent_Today</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>感覺需要此欄</t>
-  </si>
-  <si>
-    <t>Added_Date</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -93,29 +85,33 @@
   <si>
     <t>Waiting_For</t>
   </si>
+  <si>
+    <t>Follow_up_Date</t>
+  </si>
+  <si>
+    <t>Display_Name</t>
+  </si>
+  <si>
+    <t>Sheet_Source</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,79 +120,127 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDBDBD"/>
-          <bgColor rgb="FFBDBDBD"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Inbox-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="Inbox-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:C1" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
   </tableColumns>
-  <tableStyleInfo name="Inbox-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Inbox-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -206,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -396,26 +440,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,249 +472,298 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
       <formula1>"Start,End,Interrupt"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="15.63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Running,Idle,Warning"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="2">
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"Pending,Doing,Done"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0400-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
       <formula1>"Pending,Doing,Done"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
       <formula1>"Pending,Doing,Done"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheets/2026NonBlockingLife.xlsx
+++ b/sheets/2026NonBlockingLife.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d39fb11249e9e67/Documents/2026/NonBlockingLife/sheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_63D8BEEEA8F590E3939130FE62F4A9A5849807A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DFAF07-FAD5-46D5-8FF6-6A5582BB4CE8}"/>
+  <bookViews>
+    <workbookView xWindow="12630" yWindow="2550" windowWidth="10500" windowHeight="10500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Log" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Dashboard" sheetId="2" r:id="rId6"/>
-    <sheet state="visible" name="Inbox" sheetId="3" r:id="rId7"/>
-    <sheet state="visible" name="Task_Pool" sheetId="4" r:id="rId8"/>
-    <sheet state="visible" name="Micro_Tasks" sheetId="5" r:id="rId9"/>
-    <sheet state="visible" name="Periodic_Config" sheetId="6" r:id="rId10"/>
-    <sheet state="visible" name="Async_Await" sheetId="7" r:id="rId11"/>
-    <sheet state="visible" name="Selection_Cache" sheetId="8" r:id="rId12"/>
+    <sheet name="Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Inbox" sheetId="3" r:id="rId3"/>
+    <sheet name="Task_Pool" sheetId="4" r:id="rId4"/>
+    <sheet name="Scheduled" sheetId="5" r:id="rId5"/>
+    <sheet name="Selection_Cache" sheetId="6" r:id="rId6"/>
+    <sheet name="Micro_Tasks" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -38,9 +46,72 @@
     <t>State</t>
   </si>
   <si>
+    <t>Duration</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>NonBlockingLife</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Superconductor-like Society</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>晨間運動（包含爬山)</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>亞瑟RPA</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>晚上Let's Go Fit</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>Sd</t>
+  </si>
+  <si>
+    <t>晾衣服</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Free (Idle)</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>練英文</t>
+  </si>
+  <si>
     <t>Start_At</t>
   </si>
   <si>
@@ -68,50 +139,103 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Added_Date</t>
-  </si>
-  <si>
-    <t>Task_Name</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>Last_Run_Date</t>
+  </si>
+  <si>
+    <t>Total_Spent_Mins</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>ActionManifold</t>
+  </si>
+  <si>
+    <t>Cron_Expr</t>
+  </si>
+  <si>
+    <t>Remind_Before</t>
+  </si>
+  <si>
+    <t>Remind_After</t>
+  </si>
+  <si>
+    <t>Callback</t>
   </si>
   <si>
     <t>Last_Run</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Waiting_For</t>
-  </si>
-  <si>
-    <t>Follow_up_Date</t>
-  </si>
-  <si>
-    <t>Display_Name</t>
-  </si>
-  <si>
-    <t>Sheet_Source</t>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Next_Run</t>
+  </si>
+  <si>
+    <t>* 6 * * *</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>* 18 * * *</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>* 8 * * *</t>
+  </si>
+  <si>
+    <t>90m</t>
+  </si>
+  <si>
+    <t>* 14 * * *</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Total_Mins_in_Pool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ am/pm\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,127 +244,87 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDBDBD"/>
           <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Inbox-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Inbox-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:C1" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="3">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:D5" headerRowCount="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
   </tableColumns>
-  <tableStyleInfo name="Inbox-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Inbox-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -250,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -440,23 +524,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,117 +565,1022 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Start,End,Interrupt"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="15.63"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,48 +1588,163 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>46046</v>
+      </c>
+      <c r="I2" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5">
+        <v>46043</v>
+      </c>
+      <c r="I3" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5">
+        <v>46039</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>106</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="5">
+        <v>46047</v>
+      </c>
+      <c r="I5" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46043</v>
+      </c>
+      <c r="I6" s="1">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Pending,Doing,Done"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,125 +1752,265 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5">
+        <v>46047</v>
+      </c>
+      <c r="J2" s="6">
+        <v>46048.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5">
+        <v>46047</v>
+      </c>
+      <c r="J3" s="6">
+        <v>46047.772916666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5">
+        <v>46047</v>
+      </c>
+      <c r="J4" s="6">
+        <v>46048.333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5">
+        <v>46047</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5">
+        <v>46047</v>
+      </c>
+      <c r="J6" s="7">
+        <v>46048.583333333336</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Pending,Doing,Done"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" s="3"/>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
-      <formula1>"Pending,Doing,Done"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sheets/2026NonBlockingLife.xlsx
+++ b/sheets/2026NonBlockingLife.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d39fb11249e9e67/Documents/2026/NonBlockingLife/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_63D8BEEEA8F590E3939130FE62F4A9A5849807A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DFAF07-FAD5-46D5-8FF6-6A5582BB4CE8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_63D8BEEEA8F590E3939130FE62F4A9A5849807A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6588497B-6F24-45C6-9B37-CBB7C1652E3B}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="2550" windowWidth="10500" windowHeight="10500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -212,7 +212,7 @@
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ am/pm\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -238,6 +238,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -268,6 +275,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -314,6 +322,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1989,16 +2001,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2007,6 +2019,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
